--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpastushenko\Desktop\WorkSpace\university\publications\Scientific Papers\Open Science (RSOS)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpastushenko\Desktop\WorkSpace\university\publications\Scientific Papers\Open Science (RSOS)\rsos-for-sp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC78E1EA-2A74-45BD-888B-6DDC753203D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C989DDF8-E5DE-4108-AB90-29732AFF9E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -584,91 +585,91 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -748,139 +749,6 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1026,6 +894,29 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1043,6 +934,48 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1206,6 +1139,55 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1223,7 +1205,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1232,65 +1214,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -1307,43 +1230,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB0CDC82-6A06-428D-9A53-A7D04CE68619}" name="Table1" displayName="Table1" ref="A11:E17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="13" headerRowBorderDxfId="6" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB0CDC82-6A06-428D-9A53-A7D04CE68619}" name="Table1" displayName="Table1" ref="A11:E17" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A11:E17" xr:uid="{DB0CDC82-6A06-428D-9A53-A7D04CE68619}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CD223063-D95C-44FD-A4CC-9EABA884E311}" name="Method of deep learning" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{C9363484-6A04-4293-9943-5798DC367664}" name="Advantages" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{B7FE2F06-AAC9-4969-8E9B-1F4EFE59D95A}" name="Disadvantages" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{B71BCA79-3693-4BA9-B46A-684A1D79DE95}" name="Features" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{FB88E648-F96F-4B2C-A2B5-5A34B2624197}" name="Description" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{CD223063-D95C-44FD-A4CC-9EABA884E311}" name="Method of deep learning" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{C9363484-6A04-4293-9943-5798DC367664}" name="Advantages" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{B7FE2F06-AAC9-4969-8E9B-1F4EFE59D95A}" name="Disadvantages" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{B71BCA79-3693-4BA9-B46A-684A1D79DE95}" name="Features" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{FB88E648-F96F-4B2C-A2B5-5A34B2624197}" name="Description" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7638C66D-FAFD-4AF9-BB68-73AB85F85B6A}" name="Table3" displayName="Table3" ref="A4:E6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="7" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7638C66D-FAFD-4AF9-BB68-73AB85F85B6A}" name="Table3" displayName="Table3" ref="A4:E6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A4:E6" xr:uid="{7638C66D-FAFD-4AF9-BB68-73AB85F85B6A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5372E79F-4061-4C1F-87FE-2BAED94D2770}" name="Method" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{2E214C21-6B2C-4F86-BF9A-9AD0DB426871}" name="Advantages" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{6597AD45-B62E-407E-ADCD-172F8862000E}" name="Disadvantages" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{27C1ED59-E2DC-4A4B-952B-960685A0B7C5}" name="Features" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{03B7844F-6880-420D-87E7-F37B76A54703}" name="Description" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{5372E79F-4061-4C1F-87FE-2BAED94D2770}" name="Method" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{2E214C21-6B2C-4F86-BF9A-9AD0DB426871}" name="Advantages" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{6597AD45-B62E-407E-ADCD-172F8862000E}" name="Disadvantages" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{27C1ED59-E2DC-4A4B-952B-960685A0B7C5}" name="Features" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{03B7844F-6880-420D-87E7-F37B76A54703}" name="Description" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{14EDB670-6DA7-453C-942A-64E40E787373}" name="Table5" displayName="Table5" ref="A23:A37" headerRowCount="0" totalsRowShown="0" headerRowDxfId="2">
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{71A0E7B2-7F15-4885-AEB3-B69B1B2F4725}" name="Column1" headerRowDxfId="4" dataDxfId="3"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{66251F59-1473-4AB1-B4CE-74FCF77EE642}" name="Table6" displayName="Table6" ref="A43:C52" totalsRowShown="0">
   <autoFilter ref="A43:C52" xr:uid="{66251F59-1473-4AB1-B4CE-74FCF77EE642}"/>
   <tableColumns count="3">
@@ -1637,598 +1551,598 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="81" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="89" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="68" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <v>1.2</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="14">
         <v>1.2</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="14">
         <v>0.65</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="14">
         <v>1</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="14">
         <v>0.6</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="14">
         <v>1.5</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="14">
         <v>1.3</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="14">
         <v>0.62</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="18">
         <v>2.5</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="18">
         <v>1.6</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="18">
         <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="18">
         <v>1.8</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="18">
         <v>1.5</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="18">
         <v>0.82</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="18">
         <v>3.2</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="18">
         <v>1.7</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="18">
         <v>0.78</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="14">
         <v>4.5</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="14">
         <v>2</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="14">
         <v>0.85</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="14">
         <v>5</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="14">
         <v>2.1</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="14">
         <v>0.88</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="14">
         <v>4.8</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="14">
         <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
     </row>
     <row r="41" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
     </row>
     <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2239,154 +2153,153 @@
       </c>
     </row>
     <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="16">
         <v>1E-3</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="22">
         <v>0.99</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="27">
+      <c r="B45" s="22">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="22">
         <v>0.995</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="27">
+      <c r="B46" s="22">
         <v>1.5E-3</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="22">
         <v>0.98499999999999999</v>
       </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="16">
         <v>2E-3</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="16">
         <v>0.98</v>
       </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="16">
         <v>2.3E-3</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="16">
         <v>0.99</v>
       </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="16">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="16">
         <v>0.97</v>
       </c>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="27">
+      <c r="B50" s="22">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C50" s="22">
         <v>0.97399999999999998</v>
       </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="27">
+      <c r="B51" s="22">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C51" s="22">
         <v>0.98</v>
       </c>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
     </row>
     <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="27">
+      <c r="B52" s="22">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="C52" s="27">
+      <c r="C52" s="22">
         <v>0.97499999999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A21:G21"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A23:G23"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>